--- a/US/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UPPCO_A_historical.xlsx
@@ -524,7 +524,7 @@
         <v>2664173</v>
       </c>
       <c r="W2" t="n">
-        <v>2662549</v>
+        <v>2638723</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>112534571</v>
       </c>
       <c r="W3" t="n">
-        <v>168354613</v>
+        <v>167557778</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>1169552</v>
       </c>
       <c r="W4" t="n">
-        <v>1085984</v>
+        <v>1079735</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>3195</v>
       </c>
       <c r="W5" t="n">
-        <v>2975</v>
+        <v>2958</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>49463636</v>
       </c>
       <c r="W6" t="n">
-        <v>69317354</v>
+        <v>69268524</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>42.29</v>
       </c>
       <c r="W7" t="n">
-        <v>63.83</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
